--- a/output/CSHG_03536908000102.xlsx
+++ b/output/CSHG_03536908000102.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>8.465085564695514</v>
+        <v>8.455169951308372</v>
       </c>
       <c r="C192">
-        <v>0.07615507637587338</v>
+        <v>0.07502769748330906</v>
       </c>
     </row>
   </sheetData>

--- a/output/CSHG_03536908000102.xlsx
+++ b/output/CSHG_03536908000102.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CSHG VERDE AM STAR FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>-0.006076467504430694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.04999223661937413</v>
-      </c>
-      <c r="C3">
         <v>0.05641148668955043</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.04116087344520714</v>
-      </c>
-      <c r="C4">
         <v>-0.008410884258155171</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.01552609397859883</v>
-      </c>
-      <c r="C5">
         <v>-0.02462134346422629</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.01403694688098933</v>
-      </c>
-      <c r="C6">
         <v>-0.001466379944778495</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>-0.008067450202077886</v>
-      </c>
-      <c r="C7">
         <v>-0.02179841390499304</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.002467346862140118</v>
-      </c>
-      <c r="C8">
         <v>0.01062047723543724</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.01758502351379354</v>
-      </c>
-      <c r="C9">
         <v>0.01508046790648465</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.0838149436471527</v>
-      </c>
-      <c r="C10">
         <v>0.06508539198490015</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.08452206935372586</v>
-      </c>
-      <c r="C11">
         <v>0.0006524413699202647</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.1210657331466074</v>
-      </c>
-      <c r="C12">
         <v>0.03369563868318348</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.1571966768497186</v>
-      </c>
-      <c r="C13">
         <v>0.0322291036420308</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2315315065321004</v>
-      </c>
-      <c r="C14">
         <v>0.06423698855128612</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.2682462684231881</v>
-      </c>
-      <c r="C15">
         <v>0.02981227982909962</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.2728471874012897</v>
-      </c>
-      <c r="C16">
         <v>0.00362778041824785</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3163426663250228</v>
-      </c>
-      <c r="C17">
         <v>0.03417179953277483</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3254514081401094</v>
-      </c>
-      <c r="C18">
         <v>0.006919734540335565</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3370175567449283</v>
-      </c>
-      <c r="C19">
         <v>0.00872619587092105</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.3593218597286436</v>
-      </c>
-      <c r="C20">
         <v>0.01668213171262822</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.3820134113665834</v>
-      </c>
-      <c r="C21">
         <v>0.016693288256594</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.3937143261845806</v>
-      </c>
-      <c r="C22">
         <v>0.008466571106880094</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.4310868355521786</v>
-      </c>
-      <c r="C23">
         <v>0.02681504284304004</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.4737851758914222</v>
-      </c>
-      <c r="C24">
         <v>0.02983630292620831</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.4994396974462851</v>
-      </c>
-      <c r="C25">
         <v>0.01740723273277989</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.534230917269882</v>
-      </c>
-      <c r="C26">
         <v>0.02320281361287835</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.5322812364934666</v>
-      </c>
-      <c r="C27">
         <v>-0.001270787046766642</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.5734045125351679</v>
-      </c>
-      <c r="C28">
         <v>0.02683794271070594</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.6008704972392371</v>
-      </c>
-      <c r="C29">
         <v>0.01745640392235459</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.6500689086315907</v>
-      </c>
-      <c r="C30">
         <v>0.03073228688841367</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.7235921498094084</v>
-      </c>
-      <c r="C31">
         <v>0.04455767925400811</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.7857623787035053</v>
-      </c>
-      <c r="C32">
         <v>0.03607015087703402</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.8293026799907817</v>
-      </c>
-      <c r="C33">
         <v>0.02438191206541562</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.8326381265098788</v>
-      </c>
-      <c r="C34">
         <v>0.001823343154514934</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.8684599845818435</v>
-      </c>
-      <c r="C35">
         <v>0.01954660745827907</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.9141188328293348</v>
-      </c>
-      <c r="C36">
         <v>0.02443662086652054</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.953656897416244</v>
-      </c>
-      <c r="C37">
         <v>0.02065601357072833</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.9515289626098655</v>
-      </c>
-      <c r="C38">
         <v>-0.001089205995788101</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>1.065967727714174</v>
-      </c>
-      <c r="C39">
         <v>0.05864056711270349</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.9897433638972155</v>
-      </c>
-      <c r="C40">
         <v>-0.0368952345162209</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>1.065159567614213</v>
-      </c>
-      <c r="C41">
         <v>0.03790247781969414</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>1.136748245209069</v>
-      </c>
-      <c r="C42">
         <v>0.03466496183515688</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>1.21460641639037</v>
-      </c>
-      <c r="C43">
         <v>0.03643769047470635</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>1.15070923797196</v>
-      </c>
-      <c r="C44">
         <v>-0.02885261143718554</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1.017862402154714</v>
-      </c>
-      <c r="C45">
         <v>-0.06176884976907271</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.7549572659720398</v>
-      </c>
-      <c r="C46">
         <v>-0.1302889314464348</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.4779930478397278</v>
-      </c>
-      <c r="C47">
         <v>-0.1578182121596599</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.511709842475623</v>
-      </c>
-      <c r="C48">
         <v>0.02281255293127149</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.5413890119126248</v>
-      </c>
-      <c r="C49">
         <v>0.01963284792033781</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.6206463633324721</v>
-      </c>
-      <c r="C50">
         <v>0.0514194345537089</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.6378538941890337</v>
-      </c>
-      <c r="C51">
         <v>0.01061769627593434</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.6758639947752036</v>
-      </c>
-      <c r="C52">
         <v>0.02320725964692372</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.8537457782303581</v>
-      </c>
-      <c r="C53">
         <v>0.1061433290587612</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.9465333169138066</v>
-      </c>
-      <c r="C54">
         <v>0.05005407956857288</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.9946544729589537</v>
-      </c>
-      <c r="C55">
         <v>0.02472146540057296</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.095646621038053</v>
-      </c>
-      <c r="C56">
         <v>0.05063139979792242</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.177795152962989</v>
-      </c>
-      <c r="C57">
         <v>0.03919961080281964</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.224177118468728</v>
-      </c>
-      <c r="C58">
         <v>0.02129767138228544</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.244087727765715</v>
-      </c>
-      <c r="C59">
         <v>0.008951899168306632</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.312514104778671</v>
-      </c>
-      <c r="C60">
         <v>0.03049184582506648</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.392855430298372</v>
-      </c>
-      <c r="C61">
         <v>0.03474198291533881</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.491356991994192</v>
-      </c>
-      <c r="C62">
         <v>0.04116486121501195</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.444205637272769</v>
-      </c>
-      <c r="C63">
         <v>-0.01892597282241826</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.468129826917569</v>
-      </c>
-      <c r="C64">
         <v>0.009788124730574888</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.386034492787557</v>
-      </c>
-      <c r="C65">
         <v>-0.03326216199596754</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.403308198755798</v>
-      </c>
-      <c r="C66">
         <v>0.007239503879954201</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.479472945147736</v>
-      </c>
-      <c r="C67">
         <v>0.031691626746569</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.568831342925872</v>
-      </c>
-      <c r="C68">
         <v>0.03603927114954342</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.595786748447692</v>
-      </c>
-      <c r="C69">
         <v>0.01049325624122854</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.603541178406629</v>
-      </c>
-      <c r="C70">
         <v>0.002987313947717007</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.707932302032414</v>
-      </c>
-      <c r="C71">
         <v>0.04009582198721828</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.794385736658767</v>
-      </c>
-      <c r="C72">
         <v>0.03192599555072562</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.836287260545497</v>
-      </c>
-      <c r="C73">
         <v>0.0149948961365769</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.856362824423715</v>
-      </c>
-      <c r="C74">
         <v>0.007078113757193139</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.859640264177673</v>
-      </c>
-      <c r="C75">
         <v>0.001147417171913023</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.994531004374368</v>
-      </c>
-      <c r="C76">
         <v>0.04717052766617313</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>2.055698850596294</v>
-      </c>
-      <c r="C77">
         <v>0.02042651958940245</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>2.05767043634709</v>
-      </c>
-      <c r="C78">
         <v>0.0006452159873056029</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>2.046355412627132</v>
-      </c>
-      <c r="C79">
         <v>-0.003700537371671864</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.980853740854213</v>
-      </c>
-      <c r="C80">
         <v>-0.02150165128514359</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>2.017976252798867</v>
-      </c>
-      <c r="C81">
         <v>0.0124536509241866</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>2.044126926625331</v>
-      </c>
-      <c r="C82">
         <v>0.00866497004481448</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>2.087560740285052</v>
-      </c>
-      <c r="C83">
         <v>0.01426806920560009</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>2.058687268939336</v>
-      </c>
-      <c r="C84">
         <v>-0.009351547637262314</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>2.154110698536748</v>
-      </c>
-      <c r="C85">
         <v>0.03119751096047896</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>2.256845235465589</v>
-      </c>
-      <c r="C86">
         <v>0.03257163325830703</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>2.376308615134386</v>
-      </c>
-      <c r="C87">
         <v>0.03668070510931676</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>2.455411550290508</v>
-      </c>
-      <c r="C88">
         <v>0.02342882247243061</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>2.597241128301301</v>
-      </c>
-      <c r="C89">
         <v>0.04104563984538068</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>2.560722176632878</v>
-      </c>
-      <c r="C90">
         <v>-0.01015193320823282</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>2.606713419060936</v>
-      </c>
-      <c r="C91">
         <v>0.01291626814635349</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>2.705307340596214</v>
-      </c>
-      <c r="C92">
         <v>0.0273362227822771</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>2.720115816569586</v>
-      </c>
-      <c r="C93">
         <v>0.003996558075257894</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>2.772395466332975</v>
-      </c>
-      <c r="C94">
         <v>0.01405323176513296</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>2.833223831470859</v>
-      </c>
-      <c r="C95">
         <v>0.01612459925815068</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>2.943309788247006</v>
-      </c>
-      <c r="C96">
         <v>0.0287188960561966</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>3.017577729525477</v>
-      </c>
-      <c r="C97">
         <v>0.0188339099047774</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>3.097619633373315</v>
-      </c>
-      <c r="C98">
         <v>0.01992292601076628</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>3.157999038574109</v>
-      </c>
-      <c r="C99">
         <v>0.01473523913957986</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>3.220649382169277</v>
-      </c>
-      <c r="C100">
         <v>0.01506742618599866</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>3.210526453846035</v>
-      </c>
-      <c r="C101">
         <v>-0.002398429105721966</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>3.281746980610968</v>
-      </c>
-      <c r="C102">
         <v>0.01691487455205931</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>3.097904306002552</v>
-      </c>
-      <c r="C103">
         <v>-0.04293637046768783</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>3.18246238510933</v>
-      </c>
-      <c r="C104">
         <v>0.02063446893645593</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>3.323367490367334</v>
-      </c>
-      <c r="C105">
         <v>0.03368950926125791</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>3.312608397409985</v>
-      </c>
-      <c r="C106">
         <v>-0.002488590891549292</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>3.378347089289094</v>
-      </c>
-      <c r="C107">
         <v>0.0152433714868685</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>3.551927973683107</v>
-      </c>
-      <c r="C108">
         <v>0.0396453001221968</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>3.624374373683401</v>
-      </c>
-      <c r="C109">
         <v>0.0159155418141812</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>3.474738985663471</v>
-      </c>
-      <c r="C110">
         <v>-0.03235797449088074</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>3.413280829502725</v>
-      </c>
-      <c r="C111">
         <v>-0.01373446727454963</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>3.363436566507552</v>
-      </c>
-      <c r="C112">
         <v>-0.01129415165741643</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>3.307255346286353</v>
-      </c>
-      <c r="C113">
         <v>-0.01287545249366739</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>3.378939651059281</v>
-      </c>
-      <c r="C114">
         <v>0.01664268751438969</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>3.36683310305499</v>
-      </c>
-      <c r="C115">
         <v>-0.002764721363849421</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>3.311659764758983</v>
-      </c>
-      <c r="C116">
         <v>-0.01263463406865917</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>3.192564604948389</v>
-      </c>
-      <c r="C117">
         <v>-0.02762165066548361</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>3.49447467729739</v>
-      </c>
-      <c r="C118">
         <v>0.07201083365362182</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>3.392805154700661</v>
-      </c>
-      <c r="C119">
         <v>-0.02262100243000242</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>3.548935827812912</v>
-      </c>
-      <c r="C120">
         <v>0.03554236247996978</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>3.701341596846862</v>
-      </c>
-      <c r="C121">
         <v>0.03350360937213437</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>3.716067376940064</v>
-      </c>
-      <c r="C122">
         <v>0.00313225061184208</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>3.984725261000531</v>
-      </c>
-      <c r="C123">
         <v>0.05696650674969406</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>4.322464876570072</v>
-      </c>
-      <c r="C124">
         <v>0.0677549108296791</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>4.12008405895862</v>
-      </c>
-      <c r="C125">
         <v>-0.03802388973994908</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>4.39457432652328</v>
-      </c>
-      <c r="C126">
         <v>0.05361050021910962</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>4.321756738448716</v>
-      </c>
-      <c r="C127">
         <v>-0.01349830100894978</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>4.683888325311327</v>
-      </c>
-      <c r="C128">
         <v>0.06804737695849128</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>4.619499297384142</v>
-      </c>
-      <c r="C129">
         <v>-0.01132834148771888</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>4.725476690898355</v>
-      </c>
-      <c r="C130">
         <v>0.01885886765099265</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>4.786459150167988</v>
-      </c>
-      <c r="C131">
         <v>0.01065107109187524</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>4.94211012274885</v>
-      </c>
-      <c r="C132">
         <v>0.0268991741825988</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>4.980667295468285</v>
-      </c>
-      <c r="C133">
         <v>0.006488801439714642</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>5.00739631123913</v>
-      </c>
-      <c r="C134">
         <v>0.004469236366165807</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>5.061181582849768</v>
-      </c>
-      <c r="C135">
         <v>0.008953175190058893</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>4.97962377194087</v>
-      </c>
-      <c r="C136">
         <v>-0.01345576102515522</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>5.039325365444922</v>
-      </c>
-      <c r="C137">
         <v>0.009984172212338827</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>5.183552134575327</v>
-      </c>
-      <c r="C138">
         <v>0.02388127156646092</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>5.209918268675003</v>
-      </c>
-      <c r="C139">
         <v>0.004263913932616381</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>5.329567265390362</v>
-      </c>
-      <c r="C140">
         <v>0.01926740281251527</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>5.465258664613859</v>
-      </c>
-      <c r="C141">
         <v>0.02143770553880486</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>5.525152639935971</v>
-      </c>
-      <c r="C142">
         <v>0.009263972012431454</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>5.609532004824249</v>
-      </c>
-      <c r="C143">
         <v>0.01293140092568112</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>5.605015668499322</v>
-      </c>
-      <c r="C144">
         <v>-0.0006833065217977108</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>5.824011501216003</v>
-      </c>
-      <c r="C145">
         <v>0.03315598988827784</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>5.913260535188225</v>
-      </c>
-      <c r="C146">
         <v>0.01307867578422428</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>6.075409899134036</v>
-      </c>
-      <c r="C147">
         <v>0.02345483193067555</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>6.139708638070183</v>
-      </c>
-      <c r="C148">
         <v>0.009087634476698803</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>6.211881939182956</v>
-      </c>
-      <c r="C149">
         <v>0.01010871798436308</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>6.096766627900385</v>
-      </c>
-      <c r="C150">
         <v>-0.01596189625028899</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>6.159922051424782</v>
-      </c>
-      <c r="C151">
         <v>0.008899182801940686</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>6.283179156367648</v>
-      </c>
-      <c r="C152">
         <v>0.01721486687391227</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>6.348272387804195</v>
-      </c>
-      <c r="C153">
         <v>0.008937474973361947</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>6.42888789365448</v>
-      </c>
-      <c r="C154">
         <v>0.01097067468321966</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>6.346336489674474</v>
-      </c>
-      <c r="C155">
         <v>-0.01111221560504616</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>6.299359937568982</v>
-      </c>
-      <c r="C156">
         <v>-0.006394554914755046</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>6.370517165400596</v>
-      </c>
-      <c r="C157">
         <v>0.009748420195772933</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>6.71004864008765</v>
-      </c>
-      <c r="C158">
         <v>0.04606616700940824</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>6.734390611896132</v>
-      </c>
-      <c r="C159">
         <v>0.003157174869419022</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>6.782295180206151</v>
-      </c>
-      <c r="C160">
         <v>0.00619370946126474</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>6.775828610878563</v>
-      </c>
-      <c r="C161">
         <v>-0.0008309334428787674</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>6.574669133645378</v>
-      </c>
-      <c r="C162">
         <v>-0.02586984452714891</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>6.549053014823963</v>
-      </c>
-      <c r="C163">
         <v>-0.003381813564322322</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>6.674695530059885</v>
-      </c>
-      <c r="C164">
         <v>0.01664348031325247</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>6.65329825868339</v>
-      </c>
-      <c r="C165">
         <v>-0.002788028696732892</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>6.619941676625147</v>
-      </c>
-      <c r="C166">
         <v>-0.004358458396730658</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>7.03185114428641</v>
-      </c>
-      <c r="C167">
         <v>0.05405677433527245</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>7.157385745310313</v>
-      </c>
-      <c r="C168">
         <v>0.01562959755712146</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>7.180410151317353</v>
-      </c>
-      <c r="C169">
         <v>0.002822522647071946</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>7.587131062247678</v>
-      </c>
-      <c r="C170">
         <v>0.04971888981200134</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>7.530416138370226</v>
-      </c>
-      <c r="C171">
         <v>-0.006604641697713576</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>7.482060723350115</v>
-      </c>
-      <c r="C172">
         <v>-0.005668588054292711</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>7.561489103839888</v>
-      </c>
-      <c r="C173">
         <v>0.00936427869127554</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>7.712275538438996</v>
-      </c>
-      <c r="C174">
         <v>0.01761217386020841</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>7.941180449865589</v>
-      </c>
-      <c r="C175">
         <v>0.0262738374626299</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>8.059017362177215</v>
-      </c>
-      <c r="C176">
         <v>0.01317912248526398</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>8.178770292473747</v>
-      </c>
-      <c r="C177">
         <v>0.01321919646566938</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>8.388228717752749</v>
-      </c>
-      <c r="C178">
         <v>0.02281987876423397</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>8.505709766268403</v>
-      </c>
-      <c r="C179">
         <v>0.01251365428427431</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>8.530032180064046</v>
-      </c>
-      <c r="C180">
         <v>0.002558716223585167</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>8.986040525859284</v>
-      </c>
-      <c r="C181">
         <v>0.04784961238107521</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>8.962832826757792</v>
-      </c>
-      <c r="C182">
         <v>-0.002324014111638628</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>8.410975492015178</v>
-      </c>
-      <c r="C183">
         <v>-0.05539160842491075</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>5.679813885029442</v>
-      </c>
-      <c r="C184">
         <v>-0.2902102560253199</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>6.702675522350806</v>
-      </c>
-      <c r="C185">
         <v>0.1531272659577785</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>7.283048117681622</v>
-      </c>
-      <c r="C186">
         <v>0.07534688351427388</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>7.646341703610602</v>
-      </c>
-      <c r="C187">
         <v>0.04385989079955555</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>8.071444592563795</v>
-      </c>
-      <c r="C188">
         <v>0.04916563600252744</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>8.120987869246079</v>
-      </c>
-      <c r="C189">
         <v>0.005461453925750259</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>7.842830865434246</v>
-      </c>
-      <c r="C190">
         <v>-0.03049636813460921</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>7.795280320166052</v>
-      </c>
-      <c r="C191">
         <v>-0.005377298965884902</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>8.455169951308372</v>
-      </c>
-      <c r="C192">
-        <v>0.07502769748330906</v>
+        <v>0.06086716644862733</v>
       </c>
     </row>
   </sheetData>
